--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.200000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.200000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>3.747211355393928e-90</v>
+        <v>3.763211537441146e-90</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>3.66282017407122e-90</v>
+        <v>3.68214942004023e-90</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>3.577625691528008e-90</v>
+        <v>3.598956305714766e-90</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>3.491843559067982e-90</v>
+        <v>3.513979912849598e-90</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>3.405689427994488e-90</v>
+        <v>3.427567959829243e-90</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>3.31937894961099e-90</v>
+        <v>3.340068165038325e-90</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>3.233127775220838e-90</v>
+        <v>3.251828246861355e-90</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>3.147151556127718e-90</v>
+        <v>3.163195923683191e-90</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>3.061665943634978e-90</v>
+        <v>3.07451891388834e-90</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.976886589045972e-90</v>
+        <v>2.986144935861314e-90</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.893029143664384e-90</v>
+        <v>2.898421707986969e-90</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.810309258793561e-90</v>
+        <v>2.811696948649815e-90</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.728942585736862e-90</v>
+        <v>2.726318376234365e-90</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.649144775797962e-90</v>
+        <v>2.642633709125471e-90</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.571131480280214e-90</v>
+        <v>2.560990665707643e-90</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.49511835048708e-90</v>
+        <v>2.481736964365507e-90</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>2.421321037721928e-90</v>
+        <v>2.40522032348359e-90</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.349955193288412e-90</v>
+        <v>2.331788461446718e-90</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.281229628061606e-90</v>
+        <v>2.261776606310668e-90</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.215215593686516e-90</v>
+        <v>2.1952688088755e-90</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.151856944696069e-90</v>
+        <v>2.132116498277061e-90</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.091092731371515e-90</v>
+        <v>2.072162331293852e-90</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.032862003994189e-90</v>
+        <v>2.015248964704458e-90</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.977103812845358e-90</v>
+        <v>1.961219055287398e-90</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.923757208206502e-90</v>
+        <v>1.909915259821398e-90</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.872761240358885e-90</v>
+        <v>1.861180235084975e-90</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.824054959583781e-90</v>
+        <v>1.814856637856654e-90</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.777577416162654e-90</v>
+        <v>1.770787124915144e-90</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.733267660376775e-90</v>
+        <v>1.72881435303897e-90</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.691064742507481e-90</v>
+        <v>1.688780979006718e-90</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.650907712836057e-90</v>
+        <v>1.650529659596926e-90</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.612735621643945e-90</v>
+        <v>1.613903051588281e-90</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.576487519212427e-90</v>
+        <v>1.578743811759318e-90</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.542102455822798e-90</v>
+        <v>1.544894596888581e-90</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.509503352324009e-90</v>
+        <v>1.512200037308761e-90</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.478505179476074e-90</v>
+        <v>1.480517971835216e-90</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.448878603001941e-90</v>
+        <v>1.449711660328597e-90</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.42039415354164e-90</v>
+        <v>1.419644379178069e-90</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.392822361735084e-90</v>
+        <v>1.39017940477268e-90</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.365933758222225e-90</v>
+        <v>1.361180013501515e-90</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.33949887364298e-90</v>
+        <v>1.332509481753625e-90</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.313288238637372e-90</v>
+        <v>1.30403108591817e-90</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.287072383845316e-90</v>
+        <v>1.275608102384198e-90</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.260621839906732e-90</v>
+        <v>1.247103807540761e-90</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.233707137461639e-90</v>
+        <v>1.218381477777019e-90</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.206098807149956e-90</v>
+        <v>1.18930438948202e-90</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.177567379611635e-90</v>
+        <v>1.159735819044853e-90</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.147883385486589e-90</v>
+        <v>1.129539042854563e-90</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.116817355414847e-90</v>
+        <v>1.098577337300316e-90</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.084161319951342e-90</v>
+        <v>1.06672661524877e-90</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.049983712174567e-90</v>
+        <v>1.034025243897118e-90</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.014544718101602e-90</v>
+        <v>1.000624292363202e-90</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>9.781083809662416e-91</v>
+        <v>9.666770968264598e-91</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>9.409387440022763e-91</v>
+        <v>9.323369934663272e-91</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>9.032998504436424e-91</v>
+        <v>8.977573184623742e-91</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>8.65455743524131e-91</v>
+        <v>8.630914079940367e-91</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>8.276704664775807e-91</v>
+        <v>8.284925982407942e-91</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>7.902080625377824e-91</v>
+        <v>7.941142253820824e-91</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>7.533325749386728e-91</v>
+        <v>7.60109625597472e-91</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>7.173080469140424e-91</v>
+        <v>7.266321350663978e-91</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>6.823985216976846e-91</v>
+        <v>6.938350899682973e-91</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>6.488620256741279e-91</v>
+        <v>6.618688561533497e-91</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>6.168086097327538e-91</v>
+        <v>6.308107486218971e-91</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>5.861948180973674e-91</v>
+        <v>6.006623009595775e-91</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>5.56970071441178e-91</v>
+        <v>5.714215300790383e-91</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>5.290837904375084e-91</v>
+        <v>5.430864528930392e-91</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>5.024853957595664e-91</v>
+        <v>5.156550863142261e-91</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>4.77124308080566e-91</v>
+        <v>4.891254472552488e-91</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>4.529499480738198e-91</v>
+        <v>4.634955526288609e-91</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>4.299117364125409e-91</v>
+        <v>4.387634193477113e-91</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>4.079590937699475e-91</v>
+        <v>4.149270643244535e-91</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>3.870414408193437e-91</v>
+        <v>3.919845044718339e-91</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>3.671081982339469e-91</v>
+        <v>3.699337567025051e-91</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>3.481087866870032e-91</v>
+        <v>3.487728379291511e-91</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>3.299926268517361e-91</v>
+        <v>3.284997650644299e-91</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>3.1270913940144e-91</v>
+        <v>3.09112555021079e-91</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>2.962077450093368e-91</v>
+        <v>2.906092247117553e-91</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>2.804378643486529e-91</v>
+        <v>2.729877910491205e-91</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>2.653489180926764e-91</v>
+        <v>2.562462709459048e-91</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>2.508903269146325e-91</v>
+        <v>2.403826813147688e-91</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>2.370115114877679e-91</v>
+        <v>2.253950390683964e-91</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>2.23661892485312e-91</v>
+        <v>2.112813611194542e-91</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>2.107908905805463e-91</v>
+        <v>1.98039664380663e-91</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.983479264466996e-91</v>
+        <v>1.856679657646879e-91</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.862824207570028e-91</v>
+        <v>1.741642821841987e-91</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.745437941847341e-91</v>
+        <v>1.635266305519097e-91</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.630814674031241e-91</v>
+        <v>1.537530277804892e-91</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.518729941382413e-91</v>
+        <v>1.448379201574023e-91</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.410421677406791e-91</v>
+        <v>1.367571933505108e-91</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.307601499546223e-91</v>
+        <v>1.294807210679796e-91</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.211981268266013e-91</v>
+        <v>1.22978373933501e-91</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.125272844031503e-91</v>
+        <v>1.172200225707713e-91</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.049188087308371e-91</v>
+        <v>1.12175537603509e-91</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>9.854388585619452e-92</v>
+        <v>1.078147896554095e-91</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>9.357370182576204e-92</v>
+        <v>1.041076493501717e-91</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>9.017944268609776e-92</v>
+        <v>1.010239873115087e-91</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>8.853229448373914e-92</v>
+        <v>9.853367416311871e-92</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>8.8803443265231e-92</v>
+        <v>9.660658052870506e-92</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>9.11640750771228e-92</v>
+        <v>9.521257703196971e-92</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>9.578537596595348e-92</v>
+        <v>9.432153429661967e-92</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.315232047240314e-96</v>
+        <v>2.293104130762127e-96</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.944573843851252e-96</v>
+        <v>2.939900601799137e-96</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.689936071049102e-96</v>
+        <v>2.662652309181149e-96</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.510300299809082e-96</v>
+        <v>2.499189449420717e-96</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.367805229485679e-96</v>
+        <v>2.380398692336435e-96</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>2.24027152207908e-96</v>
+        <v>2.255296339344102e-96</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.296818208703046e-96</v>
+        <v>2.294055254690924e-96</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.834355092181766e-96</v>
+        <v>2.814590750786903e-96</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.699500588535195e-96</v>
+        <v>3.684461778379378e-96</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.894141065797257e-96</v>
+        <v>3.907956016993558e-96</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.834368527712577e-96</v>
+        <v>3.862950266369904e-96</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.776554927202451e-96</v>
+        <v>3.786689558553095e-96</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.513877933453966e-96</v>
+        <v>3.486346072947778e-96</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.114922671584174e-96</v>
+        <v>3.083449239139294e-96</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.795770210619272e-96</v>
+        <v>2.842548965678079e-96</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.586736695779574e-96</v>
+        <v>2.687363986101059e-96</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.454245383572278e-96</v>
+        <v>2.502695957897753e-96</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.374302285723587e-96</v>
+        <v>2.398412091515796e-96</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.204496726389134e-96</v>
+        <v>2.211992466381949e-96</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>1.996365862796732e-96</v>
+        <v>1.980773136146447e-96</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.834065191356623e-96</v>
+        <v>1.83012999885259e-96</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.669481290316794e-96</v>
+        <v>1.672671959130193e-96</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.515121036351691e-96</v>
+        <v>1.520633107219292e-96</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.386860622779269e-96</v>
+        <v>1.395686969111209e-96</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.277983112561588e-96</v>
+        <v>1.289651186291151e-96</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.179323995058291e-96</v>
+        <v>1.191109033264571e-96</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.082260682561144e-96</v>
+        <v>1.089555279701011e-96</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>9.836999597606698e-97</v>
+        <v>9.837849036639654e-97</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>8.837812015522113e-97</v>
+        <v>8.780299853667579e-97</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>7.827317973431531e-97</v>
+        <v>7.765463938188883e-97</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>6.826200961971251e-97</v>
+        <v>6.81856763359461e-97</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>5.879058093763726e-97</v>
+        <v>5.942322982875957e-97</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>5.032084558888987e-97</v>
+        <v>5.137937464140349e-97</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>4.325548807123144e-97</v>
+        <v>4.410048941475317e-97</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.760633136324337e-97</v>
+        <v>3.785918269138067e-97</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.322649456013311e-97</v>
+        <v>3.301779566837721e-97</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.990637075497947e-97</v>
+        <v>2.965143479344008e-97</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.730782826488756e-97</v>
+        <v>2.724189144162745e-97</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>2.508548527572117e-97</v>
+        <v>2.521284584891509e-97</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.306468277836655e-97</v>
+        <v>2.328869093942731e-97</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.122733539348673e-97</v>
+        <v>2.146960984058304e-97</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.956115262757516e-97</v>
+        <v>1.976599284395432e-97</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.805384398712753e-97</v>
+        <v>1.818823024111542e-97</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.669311897863725e-97</v>
+        <v>1.674671232363832e-97</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.546670880243863e-97</v>
+        <v>1.545084031164742e-97</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.43626426816007e-97</v>
+        <v>1.429642789182419e-97</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.33691663800382e-97</v>
+        <v>1.32694161619007e-97</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.247453053621323e-97</v>
+        <v>1.235552397785077e-97</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.166698578858807e-97</v>
+        <v>1.154047019564842e-97</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.093478277562608e-97</v>
+        <v>1.080997367126873e-97</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.026617213578951e-97</v>
+        <v>1.014975326068567e-97</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>9.649404507540992e-98</v>
+        <v>9.545527819873607e-98</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>9.072730529342904e-98</v>
+        <v>8.983016204806651e-98</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>8.525871627563925e-98</v>
+        <v>8.44975122051988e-98</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>8.005835512544198e-98</v>
+        <v>7.942251976540737e-98</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>7.511882091967147e-98</v>
+        <v>7.459815257708571e-98</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>7.043271932861629e-98</v>
+        <v>7.001738662045087e-98</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>6.59926560225583e-98</v>
+        <v>6.567319787571339e-98</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>6.179123667178164e-98</v>
+        <v>6.155856232308604e-98</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>5.782106694656869e-98</v>
+        <v>5.766645594277984e-98</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>5.407475251720718e-98</v>
+        <v>5.398985471501105e-98</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>5.05448990539794e-98</v>
+        <v>5.052173461999063e-98</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>4.722411222716805e-98</v>
+        <v>4.725507163792986e-98</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>4.410499770706024e-98</v>
+        <v>4.418284174904445e-98</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>4.118016116393858e-98</v>
+        <v>4.129802093354567e-98</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>3.844220826808718e-98</v>
+        <v>3.859358517164621e-98</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>3.588374468978908e-98</v>
+        <v>3.606251044355776e-98</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>3.349737609933073e-98</v>
+        <v>3.369777272949533e-98</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>3.127570816699506e-98</v>
+        <v>3.149234800967049e-98</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.921134656306532e-98</v>
+        <v>2.943921226429509e-98</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.72968969578275e-98</v>
+        <v>2.753134147358375e-98</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.552496502156476e-98</v>
+        <v>2.576171161774823e-98</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.388815642456125e-98</v>
+        <v>2.41232986770013e-98</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.237907683710045e-98</v>
+        <v>2.260907863155504e-98</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.099033192946786e-98</v>
+        <v>2.121202746162357e-98</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.971452737194692e-98</v>
+        <v>1.992512114741893e-98</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.854426883482123e-98</v>
+        <v>1.874133566915335e-98</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.7472161988376e-98</v>
+        <v>1.765364700704065e-98</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.649081250289481e-98</v>
+        <v>1.665503114129301e-98</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.55928260486618e-98</v>
+        <v>1.57384640521232e-98</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.477080829596075e-98</v>
+        <v>1.489692171974359e-98</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.401736491507654e-98</v>
+        <v>1.412338012436768e-98</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.332510157629292e-98</v>
+        <v>1.341081524620784e-98</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.268662394989401e-98</v>
+        <v>1.275220306547681e-98</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.209453770616371e-98</v>
+        <v>1.214051956238707e-98</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.154144851538668e-98</v>
+        <v>1.156874071715193e-98</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.101996204784678e-98</v>
+        <v>1.102984250998384e-98</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.052268437591404e-98</v>
+        <v>1.051680129655957e-98</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.004365824047221e-98</v>
+        <v>1.002393498018133e-98</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>9.581589858827834e-99</v>
+        <v>9.549916174831645e-99</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>9.136130031590432e-99</v>
+        <v>9.094299537549571e-99</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>8.706929559370135e-99</v>
+        <v>8.656639725374789e-99</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>8.293639242776455e-99</v>
+        <v>8.236491395346355e-99</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>7.895909882419113e-99</v>
+        <v>7.83340920450353e-99</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>7.513392278907667e-99</v>
+        <v>7.446947809885418e-99</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>7.145737232852175e-99</v>
+        <v>7.076661868531625e-99</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>6.79259554486219e-99</v>
+        <v>6.722106037481241e-99</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>6.45361801554743e-99</v>
+        <v>6.382834973773533e-99</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>6.128455445517473e-99</v>
+        <v>6.05840333444762e-99</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>5.816758635382334e-99</v>
+        <v>5.748365776543063e-99</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>5.518178385751583e-99</v>
+        <v>5.452276957098974e-99</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>5.23236549723482e-99</v>
+        <v>5.169691533154497e-99</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>4.95897077044202e-99</v>
+        <v>4.900164161749152e-99</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>4.697645005982773e-99</v>
+        <v>4.643249499922073e-99</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>4.448039004466802e-99</v>
+        <v>4.398502204712525e-99</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>4.209803566503724e-99</v>
+        <v>4.165476933159672e-99</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.982589492703474e-99</v>
+        <v>3.94372834230299e-99</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.766047583675663e-99</v>
+        <v>3.732811089181636e-99</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.559828640029924e-99</v>
+        <v>3.532279830834786e-99</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>3.363583462376161e-99</v>
+        <v>3.341689224301887e-99</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>3.176962851324003e-99</v>
+        <v>3.160593926622112e-99</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.99961760748317e-99</v>
+        <v>2.988548594834725e-99</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>2.831198531463311e-99</v>
+        <v>2.825107885978922e-99</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>2.671356423874297e-99</v>
+        <v>2.669826457094114e-99</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>2.519744030747505e-99</v>
+        <v>2.522275666864168e-99</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>2.376024492247787e-99</v>
+        <v>2.382116108672597e-99</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>2.239864405694169e-99</v>
+        <v>2.249038055923876e-99</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.110930370733677e-99</v>
+        <v>2.122731802010066e-99</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.988888987013401e-99</v>
+        <v>2.002887640323294e-99</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.873406854180382e-99</v>
+        <v>1.889195864255637e-99</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.764150571881815e-99</v>
+        <v>1.781346767199325e-99</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.660786739764737e-99</v>
+        <v>1.67903064254643e-99</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.562981957476196e-99</v>
+        <v>1.581937783689038e-99</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.470402824663372e-99</v>
+        <v>1.489758484019363e-99</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.38271594097331e-99</v>
+        <v>1.402183036929486e-99</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.2995879060531e-99</v>
+        <v>1.318901735811534e-99</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.220685319549801e-99</v>
+        <v>1.2396048740576e-99</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.145674781110572e-99</v>
+        <v>1.16398274505988e-99</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.074222890382469e-99</v>
+        <v>1.091725642210467e-99</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.005996247012553e-99</v>
+        <v>1.022523858901454e-99</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>9.406614506479766e-100</v>
+        <v>9.560676885250326e-100</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>8.779047808654102e-100</v>
+        <v>8.920676145538043e-100</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>8.176215692406976e-100</v>
+        <v>8.304485915879048e-100</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>7.598332073247716e-100</v>
+        <v>7.712649019789445e-100</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>7.045628250139937e-100</v>
+        <v>7.145726114860382e-100</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>6.51833552204648e-100</v>
+        <v>6.604277858682204e-100</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>6.016685187930437e-100</v>
+        <v>6.088864908845529e-100</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>5.540908546754706e-100</v>
+        <v>5.600047922940762e-100</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>5.091236897482808e-100</v>
+        <v>5.138387558558956e-100</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>4.667901539077625e-100</v>
+        <v>4.704444473290505e-100</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>4.271133770502084e-100</v>
+        <v>4.298779324725851e-100</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>3.901164890719641e-100</v>
+        <v>3.921952770455976e-100</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>3.558226198693213e-100</v>
+        <v>3.574525468071308e-100</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>3.24254899338576e-100</v>
+        <v>3.257058075162328e-100</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.954295178696535e-100</v>
+        <v>2.97000349534381e-100</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>2.692776593952714e-100</v>
+        <v>2.712494684785628e-100</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>2.456735339602126e-100</v>
+        <v>2.482779931124268e-100</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>2.244903015437272e-100</v>
+        <v>2.279091216984121e-100</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>2.056011221250932e-100</v>
+        <v>2.09966052498985e-100</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.888791556835593e-100</v>
+        <v>1.942719837765834e-100</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.741975621983847e-100</v>
+        <v>1.806501137936552e-100</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.614295016488229e-100</v>
+        <v>1.689236408126433e-100</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.504481340141444e-100</v>
+        <v>1.589157630960059e-100</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.411266192736019e-100</v>
+        <v>1.504496789061853e-100</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.333381174064513e-100</v>
+        <v>1.433485865056264e-100</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.269557883919583e-100</v>
+        <v>1.374356841567831e-100</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.218527922093784e-100</v>
+        <v>1.325341701220999e-100</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.179018998373527e-100</v>
+        <v>1.284706110550125e-100</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.14970348113956e-100</v>
+        <v>1.251194942249315e-100</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.129212556005408e-100</v>
+        <v>1.223909674261758e-100</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.116176428046522e-100</v>
+        <v>1.201960275096722e-100</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.109225302338369e-100</v>
+        <v>1.184456713263489e-100</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.106989383956423e-100</v>
+        <v>1.17050895727136e-100</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.108098877976147e-100</v>
+        <v>1.159226975629613e-100</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.111183989473009e-100</v>
+        <v>1.149720736847535e-100</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.114874923522478e-100</v>
+        <v>1.14110020943441e-100</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.117801885200019e-100</v>
+        <v>1.13247536189953e-100</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.1185950795811e-100</v>
+        <v>1.122956162752179e-100</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.115884711741187e-100</v>
+        <v>1.111652580501638e-100</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.10830098675575e-100</v>
+        <v>1.097674583657203e-100</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.094474109700258e-100</v>
+        <v>1.080132140728158e-100</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.073180309439903e-100</v>
+        <v>1.058235870661503e-100</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.045239173097857e-100</v>
+        <v>1.032604826628971e-100</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.012973859036836e-100</v>
+        <v>1.004894434736331e-100</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>9.787463975381883e-101</v>
+        <v>9.767866823129394e-101</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>9.470656321501778e-101</v>
+        <v>9.513186842068788e-101</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>9.279880613800462e-101</v>
+        <v>9.350182709855117e-101</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>9.232883780516972e-101</v>
+        <v>9.28417716317927e-101</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>9.197216631321454e-101</v>
+        <v>9.213163971650638e-101</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>9.046518453179639e-101</v>
+        <v>9.040550127284333e-101</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>8.768840614789426e-101</v>
+        <v>8.757603551392304e-101</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>8.393009066488573e-101</v>
+        <v>8.386904353477801e-101</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>7.94789976101137e-101</v>
+        <v>7.951071041585178e-101</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>7.462245017026035e-101</v>
+        <v>7.472767211183078e-101</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>6.961944871185286e-101</v>
+        <v>6.975545524672916e-101</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>6.470306529637858e-101</v>
+        <v>6.48377254640988e-101</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>6.010541571936714e-101</v>
+        <v>6.021844858396797e-101</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>5.605861577635426e-101</v>
+        <v>5.614159042637115e-101</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>5.279478126286938e-101</v>
+        <v>5.285111681133637e-101</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>5.054602797444401e-101</v>
+        <v>5.059099355889387e-101</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>4.954447170660958e-101</v>
+        <v>4.960518648907375e-101</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>5.002222825489864e-101</v>
+        <v>5.013766142190721e-101</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>5.204346215863739e-101</v>
+        <v>5.225511980177116e-101</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>5.372216357345443e-101</v>
+        <v>5.396594893862073e-101</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>5.256126630165738e-101</v>
+        <v>5.263484009009244e-101</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>4.924838792870931e-101</v>
+        <v>4.899393666559545e-101</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>4.54430514638246e-101</v>
+        <v>4.480396299763451e-101</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>4.204285929180694e-101</v>
+        <v>4.105389262094838e-101</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.897438329154098e-101</v>
+        <v>3.774912368780519e-101</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.610118759026669e-101</v>
+        <v>3.483123259302609e-101</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>3.328684894465582e-101</v>
+        <v>3.224179870521869e-101</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.046162259039221e-101</v>
+        <v>2.993810183094938e-101</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.777808800663707e-101</v>
+        <v>2.792977132108183e-101</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.543510490625581e-101</v>
+        <v>2.623733389469655e-101</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.363153300211327e-101</v>
+        <v>2.48813162708736e-101</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.254204819940897e-101</v>
+        <v>2.387286045293834e-101</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.201610092327971e-101</v>
+        <v>2.309690215242374e-101</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.167028912238175e-101</v>
+        <v>2.234801685574937e-101</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.111615047319224e-101</v>
+        <v>2.141881637112983e-101</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.005203763122942e-101</v>
+        <v>2.015151470424652e-101</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.854902838857659e-101</v>
+        <v>1.860128433902064e-101</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.677820814213733e-101</v>
+        <v>1.688043763336089e-101</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.491066351176087e-101</v>
+        <v>1.510128764391149e-101</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.311748083774272e-101</v>
+        <v>1.337614728233997e-101</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.153937769407114e-101</v>
+        <v>1.180158016754786e-101</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.020314843364026e-101</v>
+        <v>1.041506914631593e-101</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>9.108878567120204e-102</v>
+        <v>9.240245815380898e-102</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>8.256653605181832e-102</v>
+        <v>8.300741771480262e-102</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>7.644924506575361e-102</v>
+        <v>7.617621316293375e-102</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>7.246480563385005e-102</v>
+        <v>7.171643473224049e-102</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>7.013722225224968e-102</v>
+        <v>6.911543703833868e-102</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>6.898487474883269e-102</v>
+        <v>6.785174035952366e-102</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>6.852614295148039e-102</v>
+        <v>6.740386497409202e-102</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>6.827940668807259e-102</v>
+        <v>6.725033116033861e-102</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>6.776304578648973e-102</v>
+        <v>6.686965919655906e-102</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>6.649544007461155e-102</v>
+        <v>6.57403693610483e-102</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>6.399688347557381e-102</v>
+        <v>6.334302803759139e-102</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>6.003699029860106e-102</v>
+        <v>5.942471698282961e-102</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>5.487942521133542e-102</v>
+        <v>5.426064169630751e-102</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>4.884601295594302e-102</v>
+        <v>4.818817890307644e-102</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>4.225857827458307e-102</v>
+        <v>4.154470532818084e-102</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>3.543894590941695e-102</v>
+        <v>3.466759769666735e-102</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.870894060260302e-102</v>
+        <v>2.789423273357956e-102</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.239038709630881e-102</v>
+        <v>2.156198716397024e-102</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.680511013269258e-102</v>
+        <v>1.600823771288288e-102</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.227424125958738e-102</v>
+        <v>1.15696212048929e-102</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>8.975570202091777e-103</v>
+        <v>8.429774536743461e-103</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>6.768829649826311e-103</v>
+        <v>6.432847478907694e-103</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.470988160697827e-103</v>
+        <v>5.377344302581611e-103</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>4.899014292613035e-103</v>
+        <v>5.061769278961212e-103</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>4.869876603479219e-103</v>
+        <v>5.284626679242714e-103</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.200543651202807e-103</v>
+        <v>5.84442077462183e-103</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.707983993690877e-103</v>
+        <v>6.539655836294879e-103</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>6.20916618884974e-103</v>
+        <v>7.168836135457166e-103</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>6.529300152068558e-103</v>
+        <v>7.539907395604064e-103</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>6.61893932732316e-103</v>
+        <v>7.604411216118355e-103</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>6.526174914857932e-103</v>
+        <v>7.425630262725923e-103</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>6.301668416780162e-103</v>
+        <v>7.069791786736541e-103</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>5.996081335197026e-103</v>
+        <v>6.603123039459775e-103</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>5.660075172215562e-103</v>
+        <v>6.091851272204985e-103</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.344311429943274e-103</v>
+        <v>5.60220373628225e-103</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>5.099451610487199e-103</v>
+        <v>5.200407683000936e-103</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>4.97615721595452e-103</v>
+        <v>4.952690363670639e-103</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>5.012007714657662e-103</v>
+        <v>4.908451839972146e-103</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>5.190631424596572e-103</v>
+        <v>5.047695759294762e-103</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>5.481750616352903e-103</v>
+        <v>5.332538665190041e-103</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>5.85508754627263e-103</v>
+        <v>5.725097082898479e-103</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>6.28036447070193e-103</v>
+        <v>6.18748753766079e-103</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>6.72730364598638e-103</v>
+        <v>6.68182655471704e-103</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>7.165627328472146e-103</v>
+        <v>7.170230659307921e-103</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>7.565057774505366e-103</v>
+        <v>7.614816376674113e-103</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>7.89544666715971e-103</v>
+        <v>7.977846537328784e-103</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>8.150919969805567e-103</v>
+        <v>8.249023861990802e-103</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>8.378285662100657e-103</v>
+        <v>8.477603351614304e-103</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>8.631256499914585e-103</v>
+        <v>8.720645235519991e-103</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>8.963545239117237e-103</v>
+        <v>9.035209743028855e-103</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>9.428864635578399e-103</v>
+        <v>9.478357103461779e-103</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.008092744516819e-102</v>
+        <v>1.010714754613998e-102</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.097344642375584e-102</v>
+        <v>1.097864130038379e-102</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.216013432721136e-102</v>
+        <v>1.214989859551435e-102</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.369348553226277e-102</v>
+        <v>1.367672461472798e-102</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.555774256106172e-102</v>
+        <v>1.554461865478444e-102</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.763405637480944e-102</v>
+        <v>1.763288592260177e-102</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.979501794090248e-102</v>
+        <v>1.981201401924584e-102</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>2.191321822673751e-102</v>
+        <v>2.195249054578265e-102</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>2.386124819970835e-102</v>
+        <v>2.392480310327531e-102</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>2.551169882721174e-102</v>
+        <v>2.559943929278988e-102</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>2.673716107664388e-102</v>
+        <v>2.684688671539186e-102</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>2.741022591539938e-102</v>
+        <v>2.753763297214518e-102</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>2.743223317544135e-102</v>
+        <v>2.757128649312185e-102</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>2.685498271373044e-102</v>
+        <v>2.699986244606055e-102</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>2.577933125380514e-102</v>
+        <v>2.592506758286266e-102</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>2.430616251683421e-102</v>
+        <v>2.444863600236605e-102</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>2.253636022398508e-102</v>
+        <v>2.267230180340726e-102</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>2.057080809642551e-102</v>
+        <v>2.069779908482317e-102</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.851038985532235e-102</v>
+        <v>1.862686194544974e-102</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.645598922184528e-102</v>
+        <v>1.656122448412577e-102</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.450848832448416e-102</v>
+        <v>1.460261919432103e-102</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.274742204014204e-102</v>
+        <v>1.2831261239973e-102</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.117746205101185e-102</v>
+        <v>1.125190613983392e-102</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>9.786878260369071e-103</v>
+        <v>9.852776957391342e-103</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>8.563940571490008e-103</v>
+        <v>8.622096756133653e-103</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>7.496918887650534e-103</v>
+        <v>7.5480885995488e-103</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>6.57408311212792e-103</v>
+        <v>6.618975551126141e-103</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>5.78370314819796e-103</v>
+        <v>5.822980674353553e-103</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>5.114048899136972e-103</v>
+        <v>5.148327032719428e-103</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>4.553390268221041e-103</v>
+        <v>4.583237689711931e-103</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>4.089997158726978e-103</v>
+        <v>4.11593570881996e-103</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>3.71213947393082e-103</v>
+        <v>3.734644153531628e-103</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>3.408087117108763e-103</v>
+        <v>3.427586087335209e-103</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>3.166109991537387e-103</v>
+        <v>3.182984573719369e-103</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.974478000492854e-103</v>
+        <v>2.989062676172347e-103</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.821461047251417e-103</v>
+        <v>2.834043458182476e-103</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.695329035089521e-103</v>
+        <v>2.706149983238283e-103</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>2.584351867283405e-103</v>
+        <v>2.593605314828086e-103</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>2.477931980720679e-103</v>
+        <v>2.485768955407137e-103</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>2.373037402964263e-103</v>
+        <v>2.379592086798916e-103</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.26973600541165e-103</v>
+        <v>2.275136423962209e-103</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.168105024492442e-103</v>
+        <v>2.172473079181675e-103</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.068221696636287e-103</v>
+        <v>2.071673164742024e-103</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.970163258272791e-103</v>
+        <v>1.972807792927919e-103</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.87400694583169e-103</v>
+        <v>1.875948076024159e-103</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.779829995742587e-103</v>
+        <v>1.781165126315407e-103</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.68770964443509e-103</v>
+        <v>1.68853005608633e-103</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.59772312833893e-103</v>
+        <v>1.598113977621719e-103</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.509947683883714e-103</v>
+        <v>1.509988003206242e-103</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.424460547499052e-103</v>
+        <v>1.424223245124567e-103</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.34133895561467e-103</v>
+        <v>1.340890815661482e-103</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.260660144660176e-103</v>
+        <v>1.260061827101656e-103</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.182501351065185e-103</v>
+        <v>1.181807391729761e-103</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.106939811259449e-103</v>
+        <v>1.106198621830611e-103</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.034052761672481e-103</v>
+        <v>1.033306629688778e-103</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>9.639174387339968e-104</v>
+        <v>9.63202527589039e-104</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>8.966110788737061e-104</v>
+        <v>8.959574278161627e-104</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>8.322109185211348e-104</v>
+        <v>8.316424426547359e-104</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>7.707941941060481e-104</v>
+        <v>7.703286843895832e-104</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>7.124381420579835e-104</v>
+        <v>7.120872653053027e-104</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>6.572199988066458e-104</v>
+        <v>6.569892976866589e-104</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>6.052170007817293e-104</v>
+        <v>6.05105893818406e-104</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>5.565063844127886e-104</v>
+        <v>5.56508165985159e-104</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>5.111653861295206e-104</v>
+        <v>5.112672264716746e-104</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>4.692587900921434e-104</v>
+        <v>4.694421130515372e-104</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>4.307061953434428e-104</v>
+        <v>4.309510827896035e-104</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.95333329722003e-104</v>
+        <v>3.956213692705714e-104</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.629643473832298e-104</v>
+        <v>3.632786801360045e-104</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.33423402482443e-104</v>
+        <v>3.337487230273804e-104</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.065346491750513e-104</v>
+        <v>3.068572055862656e-104</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>2.821222416164538e-104</v>
+        <v>2.824298354542165e-104</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.600103339619844e-104</v>
+        <v>2.602923202727252e-104</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>2.400230803670447e-104</v>
+        <v>2.402703676833505e-104</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>2.219846349870279e-104</v>
+        <v>2.221896853276438e-104</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.057191519772799e-104</v>
+        <v>2.058759808471083e-104</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.910507854932083e-104</v>
+        <v>1.911549618833096e-104</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.77803689690165e-104</v>
+        <v>1.778523360777569e-104</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.658020187235419e-104</v>
+        <v>1.657938110720003e-104</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.548699267487266e-104</v>
+        <v>1.548050945075848e-104</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.448315679210775e-104</v>
+        <v>1.447118940260265e-104</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.355110963959831e-104</v>
+        <v>1.353399172688718e-104</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.267352201823604e-104</v>
+        <v>1.265173979013788e-104</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.184044359466274e-104</v>
+        <v>1.181455541575943e-104</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.105025066880396e-104</v>
+        <v>1.10207963235702e-104</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.030176534754009e-104</v>
+        <v>1.026926118230211e-104</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>9.593809737749502e-105</v>
+        <v>9.5587486606851e-105</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>8.925205946313184e-105</v>
+        <v>8.888057427451722e-105</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>8.294776080109659e-105</v>
+        <v>8.255986151332064e-105</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>7.70134224601927e-105</v>
+        <v>7.661333501058023e-105</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>7.143726550922224e-105</v>
+        <v>7.102898145361364e-105</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>6.620751101697234e-105</v>
+        <v>6.579478752972368e-105</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>6.131238005224542e-105</v>
+        <v>6.089873992622831e-105</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>5.674009368384264e-105</v>
+        <v>5.632882533044435e-105</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>5.247887298055303e-105</v>
+        <v>5.207303042967639e-105</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>4.851693901117803e-105</v>
+        <v>4.811934191124149e-105</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>4.484251284451804e-105</v>
+        <v>4.445574646245566e-105</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>4.144381554936366e-105</v>
+        <v>4.107023077062508e-105</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>3.830906819451552e-105</v>
+        <v>3.795078152306602e-105</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>3.542649184877333e-105</v>
+        <v>3.508538540709376e-105</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>3.27843075809291e-105</v>
+        <v>3.246202911001596e-105</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>3.037073645978485e-105</v>
+        <v>3.006869931915018e-105</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.817399955413343e-105</v>
+        <v>2.789338272180494e-105</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.618231793277432e-105</v>
+        <v>2.592406600529529e-105</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.438391266450628e-105</v>
+        <v>2.414873585693557e-105</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.276700481812329e-105</v>
+        <v>2.255537896403541e-105</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.131981546242425e-105</v>
+        <v>2.113198201390931e-105</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.003056566620747e-105</v>
+        <v>1.986653169387113e-105</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.888747649826784e-105</v>
+        <v>1.874701469123144e-105</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.787876902740381e-105</v>
+        <v>1.776141769330425e-105</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.699266432241332e-105</v>
+        <v>1.68977273874031e-105</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.621738345209201e-105</v>
+        <v>1.614393046083926e-105</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.554114748523792e-105</v>
+        <v>1.548801360092637e-105</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.495217749064876e-105</v>
+        <v>1.491796349497772e-105</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.443869453712071e-105</v>
+        <v>1.442176683030512e-105</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.39889196934519e-105</v>
+        <v>1.398741029422228e-105</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.359107402843874e-105</v>
+        <v>1.360288057404124e-105</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.323371836677625e-105</v>
+        <v>1.325651862970685e-105</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.291060427258646e-105</v>
+        <v>1.294207794507016e-105</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.261953458523631e-105</v>
+        <v>1.265753637787386e-105</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.23584196098651e-105</v>
+        <v>1.240098384331798e-105</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.212516965161206e-105</v>
+        <v>1.217051025660245e-105</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.191769501561577e-105</v>
+        <v>1.19642055329266e-105</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.173390600701548e-105</v>
+        <v>1.178015958749036e-105</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.157171293095032e-105</v>
+        <v>1.161646233549363e-105</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.142902609255905e-105</v>
+        <v>1.147120369213582e-105</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.130375579698091e-105</v>
+        <v>1.134247357261695e-105</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.119381234935471e-105</v>
+        <v>1.122836189213651e-105</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.109710605481958e-105</v>
+        <v>1.112695856589435e-105</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.10115472185146e-105</v>
+        <v>1.10363535090903e-105</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.093504614557864e-105</v>
+        <v>1.095463663692392e-105</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.086551314115079e-105</v>
+        <v>1.087989786459502e-105</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.080085851037012e-105</v>
+        <v>1.081022710730341e-105</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.073899255837554e-105</v>
+        <v>1.074371428024868e-105</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.067782559030611e-105</v>
+        <v>1.067844929863065e-105</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.061526791130091e-105</v>
+        <v>1.061252207764909e-105</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.054922982649885e-105</v>
+        <v>1.054402253250363e-105</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.047762164103898e-105</v>
+        <v>1.047104057839406e-105</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.039835366006041e-105</v>
+        <v>1.039166613052018e-105</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.030923041635098e-105</v>
+        <v>1.030385965555065e-105</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.020691895706788e-105</v>
+        <v>1.020418951869823e-105</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.008739396561706e-105</v>
+        <v>1.008837674208833e-105</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>9.946620314908102e-106</v>
+        <v>9.952130341359571e-106</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>9.780562877851063e-106</v>
+        <v>9.791159332151046e-106</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>9.585186527355435e-106</v>
+        <v>9.601172730101308e-106</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>9.356456136331156e-106</v>
+        <v>9.377879550849326e-106</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>9.090336577688266e-106</v>
+        <v>9.116988810034187e-106</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>8.782792724336091e-106</v>
+        <v>8.814209523294263e-106</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>8.429789449184645e-106</v>
+        <v>8.465250706268607e-106</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>8.027291625144102e-106</v>
+        <v>8.065821374596437e-106</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>7.571264125123541e-106</v>
+        <v>7.611630543915877e-106</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>7.057671822033087e-106</v>
+        <v>7.098387229866097e-106</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>6.484699392033356e-106</v>
+        <v>6.524073680226777e-106</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>5.865789970285325e-106</v>
+        <v>5.902297860690569e-106</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>5.220801100127567e-106</v>
+        <v>5.2532365348057e-106</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.569612522340477e-106</v>
+        <v>4.59708919783694e-106</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.932103977706204e-106</v>
+        <v>3.954055345050828e-106</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>3.32815520700684e-106</v>
+        <v>3.344334471713847e-106</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.777645951022859e-106</v>
+        <v>2.788126073090838e-106</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.300455950536393e-106</v>
+        <v>2.305629644448329e-106</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.916464946329314e-106</v>
+        <v>1.917044681052577e-106</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.640986380586204e-106</v>
+        <v>1.637944771640935e-106</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.468480663093479e-106</v>
+        <v>1.462778259489258e-106</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.38745887150558e-106</v>
+        <v>1.379966493850659e-106</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.386431634537087e-106</v>
+        <v>1.377930369177974e-106</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.45390958090274e-106</v>
+        <v>1.445090779924207e-106</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.578403339317387e-106</v>
+        <v>1.569868620542466e-106</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.748423538495712e-106</v>
+        <v>1.740684785485696e-106</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.952480807152237e-106</v>
+        <v>1.945960169206681e-106</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>2.179085774002056e-106</v>
+        <v>2.174115666158776e-106</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>2.416749067759712e-106</v>
+        <v>2.413572170794787e-106</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>2.653981317139715e-106</v>
+        <v>2.652750577567481e-106</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.879293150857217e-106</v>
+        <v>2.880071780930276e-106</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>3.081195197626717e-106</v>
+        <v>3.08395667533593e-106</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>3.248198086162804e-106</v>
+        <v>3.252826155237292e-106</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.368812445180502e-106</v>
+        <v>3.375101115087649e-106</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>3.431548903394362e-106</v>
+        <v>3.439202449339812e-106</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>3.424918089519137e-106</v>
+        <v>3.433551052446796e-106</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>3.339766152616754e-106</v>
+        <v>3.348918285932172e-106</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>3.182596740648732e-106</v>
+        <v>3.191833214143757e-106</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.96634949226691e-106</v>
+        <v>2.975302080787838e-106</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.703983831660919e-106</v>
+        <v>2.712351041730796e-106</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.408459183021241e-106</v>
+        <v>2.416006252839867e-106</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.092734970537363e-106</v>
+        <v>2.099293869981288e-106</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.769770618399572e-106</v>
+        <v>1.775240049022098e-106</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.452525550798179e-106</v>
+        <v>1.456870945829361e-106</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.153959191922634e-106</v>
+        <v>1.157212716269278e-106</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>8.870309659632605e-107</v>
+        <v>8.892915162089231e-107</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>6.646910399438849e-107</v>
+        <v>6.661242005893304e-107</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>4.947620984573081e-107</v>
+        <v>4.95575903800717e-107</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.714334928612998e-107</v>
+        <v>3.71813980875143e-107</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.866537558396693e-107</v>
+        <v>2.867543755978077e-107</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.323714200760179e-107</v>
+        <v>2.323130317537019e-107</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.005350182542069e-107</v>
+        <v>2.004058931280774e-107</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.830930830579331e-107</v>
+        <v>1.829489035060208e-107</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.72020757263774e-107</v>
+        <v>1.718847246931624e-107</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.619368091510275e-107</v>
+        <v>1.61810366257416e-107</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.523103618861844e-107</v>
+        <v>1.521928651695368e-107</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.431301273147536e-107</v>
+        <v>1.430209544748719e-107</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.343848172822426e-107</v>
+        <v>1.342833672187668e-107</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.260631436341353e-107</v>
+        <v>1.259688364465435e-107</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.181538182159396e-107</v>
+        <v>1.180660952035479e-107</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.106455528731618e-107</v>
+        <v>1.105638765351243e-107</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.035270594512882e-107</v>
+        <v>1.034509134865971e-107</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>9.678704979582537e-108</v>
+        <v>9.671593910331085e-108</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>9.041423575227872e-108</v>
+        <v>9.034768643060903e-108</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>8.439732916613652e-108</v>
+        <v>8.433488851381794e-108</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>7.872504188290436e-108</v>
+        <v>7.866627839828119e-108</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>7.338608574808673e-108</v>
+        <v>7.333058912934134e-108</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>6.83691726071737e-108</v>
+        <v>6.831655375232647e-108</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>6.366301430567414e-108</v>
+        <v>6.361290531258348e-108</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>5.925632268907928e-108</v>
+        <v>5.920837685544165e-108</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>5.513780960289326e-108</v>
+        <v>5.509170142624316e-108</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>5.129618689261917e-108</v>
+        <v>5.125161207032914e-108</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>4.772016640374985e-108</v>
+        <v>4.767684183303045e-108</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>4.43984599817886e-108</v>
+        <v>4.435612375968843e-108</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>4.131977947223786e-108</v>
+        <v>4.127819089564358e-108</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>3.847283672059185e-108</v>
+        <v>3.843177628622812e-108</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>3.584634357235318e-108</v>
+        <v>3.580561297678272e-108</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>3.342901187302367e-108</v>
+        <v>3.338843401264724e-108</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>3.120955346809875e-108</v>
+        <v>3.116897243915513e-108</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.917668020308216e-108</v>
+        <v>2.913596130164818e-108</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.731910392347003e-108</v>
+        <v>2.727813364546055e-108</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.562553647476398e-108</v>
+        <v>2.558422251593189e-108</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.408468970246511e-108</v>
+        <v>2.404296095840135e-108</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.26852754520704e-108</v>
+        <v>2.264308201820392e-108</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.141600556908102e-108</v>
+        <v>2.137331874067885e-108</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.026559189899773e-108</v>
+        <v>2.022240417116492e-108</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.922274628731821e-108</v>
+        <v>1.917907135499782e-108</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.827618057954329e-108</v>
+        <v>1.823205333751645e-108</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.741460662117346e-108</v>
+        <v>1.737008316405932e-108</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.662673625770692e-108</v>
+        <v>1.658189387996267e-108</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.590128133464487e-108</v>
+        <v>1.585621853056573e-108</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.522695369748575e-108</v>
+        <v>1.518179016120499e-108</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.459246519172998e-108</v>
+        <v>1.45473418172189e-108</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.398653004211451e-108</v>
+        <v>1.394160891648169e-108</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.340035138406086e-108</v>
+        <v>1.335580877791195e-108</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.283233340113585e-108</v>
+        <v>1.278833948791161e-108</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.228217504028658e-108</v>
+        <v>1.223889024975778e-108</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.174957524845869e-108</v>
+        <v>1.170715026672609e-108</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.123423297259927e-108</v>
+        <v>1.119280874209367e-108</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.073584715965538e-108</v>
+        <v>1.069555487913758e-108</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.025411675657272e-108</v>
+        <v>1.021507788113354e-108</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>9.788740710298366e-109</v>
+        <v>9.751066951358636e-109</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>9.339417967779317e-109</v>
+        <v>9.303211293089879e-109</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>8.905847475961372e-109</v>
+        <v>8.871200109603092e-109</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>8.487728181791552e-109</v>
+        <v>8.454722604175303e-109</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>8.084759032216826e-109</v>
+        <v>8.053467980083493e-109</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>7.696638974183068e-109</v>
+        <v>7.667125440603557e-109</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>7.323066954637592e-109</v>
+        <v>7.295384189012816e-109</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>6.963741920526331e-109</v>
+        <v>6.937933428587223e-109</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>6.618362818796234e-109</v>
+        <v>6.594462362603739e-109</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>6.286628596394206e-109</v>
+        <v>6.264660194339281e-109</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>5.968238200266253e-109</v>
+        <v>5.948216127069873e-109</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>5.662890577359293e-109</v>
+        <v>5.644819364072445e-109</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>5.370284674620184e-109</v>
+        <v>5.354159108623869e-109</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>5.090119438995017e-109</v>
+        <v>5.075924564000251e-109</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>4.822093817430663e-109</v>
+        <v>4.809804933478473e-109</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>4.565906756873958e-109</v>
+        <v>4.555489420335389e-109</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>4.321257204271046e-109</v>
+        <v>4.312667227847157e-109</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>4.08784410656898e-109</v>
+        <v>4.081027559290841e-109</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.865366410713946e-109</v>
+        <v>3.860259617942644e-109</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.653523063652766e-109</v>
+        <v>3.650052607079401e-109</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.452013012332227e-109</v>
+        <v>3.450095729977913e-109</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.260535203698572e-109</v>
+        <v>3.260078189914438e-109</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.078788584698598e-109</v>
+        <v>3.079689190165786e-109</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>2.906472102279063e-109</v>
+        <v>2.908617934008728e-109</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>2.743284703386263e-109</v>
+        <v>2.746553624719578e-109</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>2.588925334966968e-109</v>
+        <v>2.593185465575116e-109</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>2.443092943967912e-109</v>
+        <v>2.448202659852092e-109</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>2.30548647733544e-109</v>
+        <v>2.311294410826868e-109</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>2.175804882016411e-109</v>
+        <v>2.182149921776311e-109</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>2.053747104957198e-109</v>
+        <v>2.060458395976812e-109</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.939012092930752e-109</v>
+        <v>1.945909036716331e-109</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.83129380519933e-109</v>
+        <v>1.838191369257763e-109</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.730268170382546e-109</v>
+        <v>1.736996082855032e-109</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.635607043921745e-109</v>
+        <v>1.642014129710955e-109</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.546982281258618e-109</v>
+        <v>1.552936462028698e-109</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.46406573783453e-109</v>
+        <v>1.469454032011098e-109</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.386529269091085e-109</v>
+        <v>1.391257791861234e-109</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.314044730469869e-109</v>
+        <v>1.318038693782167e-109</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.246283977412274e-109</v>
+        <v>1.24948768997676e-109</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.182918865359891e-109</v>
+        <v>1.185295732648078e-109</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.123621249754294e-109</v>
+        <v>1.12515377399917e-109</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.068062986036898e-109</v>
+        <v>1.068752766232924e-109</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.015915929649282e-109</v>
+        <v>1.015783661552392e-109</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>9.668519360330123e-110</v>
+        <v>9.659374121606151e-110</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>9.20542860629522e-110</v>
+        <v>9.189049702604988e-110</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>8.766605588804181e-110</v>
+        <v>8.743772880551248e-110</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>8.348768862271446e-110</v>
+        <v>8.320453177474096e-110</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>7.948636981112645e-110</v>
+        <v>7.916000115403905e-110</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>7.563023604860384e-110</v>
+        <v>7.527408195212872e-110</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>7.190412117414456e-110</v>
+        <v>7.153163858978966e-110</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>6.830710394846504e-110</v>
+        <v>6.793026368780043e-110</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>6.483871983651067e-110</v>
+        <v>6.446795794378827e-110</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>6.149850430321755e-110</v>
+        <v>6.114272205537113e-110</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>5.828599281353108e-110</v>
+        <v>5.795255672017632e-110</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>5.520072083239636e-110</v>
+        <v>5.489546263583074e-110</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>5.224222382475016e-110</v>
+        <v>5.196944049995305e-110</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>4.941003725554008e-110</v>
+        <v>4.917249101017268e-110</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>4.670369658970334e-110</v>
+        <v>4.650261486410876e-110</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>4.412273729218486e-110</v>
+        <v>4.395781275938806e-110</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>4.166669482792911e-110</v>
+        <v>4.153608539363686e-110</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>3.933510466187397e-110</v>
+        <v>3.923543346447497e-110</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>3.712750225896402e-110</v>
+        <v>3.705385766952879e-110</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>3.504341419140911e-110</v>
+        <v>3.49893545118757e-110</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>3.308084049398829e-110</v>
+        <v>3.303920045334697e-110</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>3.123453657080097e-110</v>
+        <v>3.119914151973161e-110</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.94988427604204e-110</v>
+        <v>2.946472795760506e-110</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.786809940141522e-110</v>
+        <v>2.783151001353809e-110</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.633664683236009e-110</v>
+        <v>2.629503793410754e-110</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.489882539182401e-110</v>
+        <v>2.485086196588456e-110</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.354897541838015e-110</v>
+        <v>2.349453235544446e-110</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.228143725060025e-110</v>
+        <v>2.222159934936115e-110</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.10906041140018e-110</v>
+        <v>2.102764850090775e-110</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.997253429224187e-110</v>
+        <v>1.990937693645794e-110</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.892524668400307e-110</v>
+        <v>1.88647906657665e-110</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.794687268145926e-110</v>
+        <v>1.789197079790988e-110</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.703554367678718e-110</v>
+        <v>1.698899844196737e-110</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.61893910621633e-110</v>
+        <v>1.615395470701803e-110</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.540654622976189e-110</v>
+        <v>1.538492070213871e-110</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.468466255694004e-110</v>
+        <v>1.467943981046993e-110</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.401331534212883e-110</v>
+        <v>1.402596826472144e-110</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.337535114701294e-110</v>
+        <v>1.340539304214237e-110</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.27534112159129e-110</v>
+        <v>1.279837015544276e-110</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.213013679314919e-110</v>
+        <v>1.218555561733259e-110</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.149312913642443e-110</v>
+        <v>1.15531042783655e-110</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.085218266454818e-110</v>
+        <v>1.091177507476132e-110</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.022329650230171e-110</v>
+        <v>1.027920568869828e-110</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>9.6224700636931e-111</v>
+        <v>9.673034123001023e-111</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>9.062887342834939e-111</v>
+        <v>9.10784491104486e-111</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>8.545181038325462e-111</v>
+        <v>8.584610052790988e-111</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>8.066487536505196e-111</v>
+        <v>8.100509615536625e-111</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>7.623943075660244e-111</v>
+        <v>7.652723506006273e-111</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>7.214683894075524e-111</v>
+        <v>7.238431630923234e-111</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>6.835846230037172e-111</v>
+        <v>6.85481389701204e-111</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>6.484566321831206e-111</v>
+        <v>6.499050210997103e-111</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>6.157980407742716e-111</v>
+        <v>6.168320479601901e-111</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>5.853224726058012e-111</v>
+        <v>5.859804609551141e-111</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>5.567435515062263e-111</v>
+        <v>5.570682507568379e-111</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>5.297749013041471e-111</v>
+        <v>5.298134080378015e-111</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>5.041301458281353e-111</v>
+        <v>5.039339234704153e-111</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.795229089067845e-111</v>
+        <v>4.791477877271128e-111</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.556735051579667e-111</v>
+        <v>4.551794511152351e-111</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.324638190192393e-111</v>
+        <v>4.319093518240342e-111</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.099416911954488e-111</v>
+        <v>4.093781508286358e-111</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.881625306677433e-111</v>
+        <v>3.876338159105524e-111</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.671817464172687e-111</v>
+        <v>3.667243148512935e-111</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.470547474251137e-111</v>
+        <v>3.466976154323124e-111</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.278369426724248e-111</v>
+        <v>3.276016854351196e-111</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.09583741140345e-111</v>
+        <v>3.094844926412219e-111</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>2.923505518099682e-111</v>
+        <v>2.923940048320778e-111</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>2.761927836624383e-111</v>
+        <v>2.763781897891952e-111</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>2.611658456788955e-111</v>
+        <v>2.61485015294078e-111</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>2.473251468404395e-111</v>
+        <v>2.477624491281905e-111</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.347260961282222e-111</v>
+        <v>2.352584590730483e-111</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.23402926207683e-111</v>
+        <v>2.240010440406042e-111</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.132699064312907e-111</v>
+        <v>2.139050797828953e-111</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>2.041991116558205e-111</v>
+        <v>2.048456534318734e-111</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.960625701048264e-111</v>
+        <v>1.966978081452334e-111</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.887323100018871e-111</v>
+        <v>1.893365870806954e-111</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.820803595705788e-111</v>
+        <v>1.826370333959764e-111</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.759787470344597e-111</v>
+        <v>1.764741902487759e-111</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.702995006171063e-111</v>
+        <v>1.707231007968116e-111</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.649146508881033e-111</v>
+        <v>1.652588105833418e-111</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.601197303355398e-111</v>
+        <v>1.603870034679573e-111</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.578152015301334e-111</v>
+        <v>1.580453379446389e-111</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.602588010719074e-111</v>
+        <v>1.605346654497851e-111</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.682315558094413e-111</v>
+        <v>1.686476847704436e-111</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.801625870258786e-111</v>
+        <v>1.807751110905434e-111</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.942711541442081e-111</v>
+        <v>1.9509332924231e-111</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.087765165873857e-111</v>
+        <v>2.09778724057936e-111</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>2.218979337783667e-111</v>
+        <v>2.230076803696131e-111</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>2.318654727908526e-111</v>
+        <v>2.329679598366315e-111</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.375982928443964e-111</v>
+        <v>2.38572706755373e-111</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.391076892568562e-111</v>
+        <v>2.398847180018054e-111</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.365017719462819e-111</v>
+        <v>2.370687037162081e-111</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.298886508307247e-111</v>
+        <v>2.302893740388628e-111</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.194495249566038e-111</v>
+        <v>2.197788194227976e-111</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.060751919816572e-111</v>
+        <v>2.064233038954723e-111</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.910554795226492e-111</v>
+        <v>1.914769541752212e-111</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.756846620144354e-111</v>
+        <v>1.7619799646823e-111</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.612570138918296e-111</v>
+        <v>1.618446569806426e-111</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.48964628757216e-111</v>
+        <v>1.495756918642135e-111</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.388501679420365e-111</v>
+        <v>1.394309185442208e-111</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.302325683526888e-111</v>
+        <v>1.307456298672016e-111</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.224194817847076e-111</v>
+        <v>1.228441329540467e-111</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.147185600336072e-111</v>
+        <v>1.150507349256267e-111</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>1.064465219291292e-111</v>
+        <v>1.066986366997685e-111</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>9.733592724711601e-112</v>
+        <v>9.752893496791779e-112</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>8.769934002026843e-112</v>
+        <v>8.785164895613799e-112</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>7.789236770015629e-112</v>
+        <v>7.801901890985962e-112</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>6.827061773834998e-112</v>
+        <v>6.838328507451373e-112</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>5.918969758639386e-112</v>
+        <v>5.92966876955053e-112</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>5.100521469586555e-112</v>
+        <v>5.111146701827262e-112</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.406669682603988e-112</v>
+        <v>4.417382478815033e-112</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>3.851141045889594e-112</v>
+        <v>3.861913962307161e-112</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.421406477692663e-112</v>
+        <v>3.432201176582281e-112</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.1033087255344e-112</v>
+        <v>3.114087006659271e-112</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>2.882690536937211e-112</v>
+        <v>2.893414337558214e-112</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.745394659423158e-112</v>
+        <v>2.756026054298845e-112</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.677263840513967e-112</v>
+        <v>2.687765041900567e-112</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.664140827731765e-112</v>
+        <v>2.674474185383182e-112</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.691868368598482e-112</v>
+        <v>2.701996369766293e-112</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.746289210636143e-112</v>
+        <v>2.756174480069603e-112</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.813246101366648e-112</v>
+        <v>2.822851401312684e-112</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.878581788312091e-112</v>
+        <v>2.887870018515309e-112</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.928139018994385e-112</v>
+        <v>2.937073216697062e-112</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.94806655939679e-112</v>
+        <v>2.956609957175017e-112</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.932814233235217e-112</v>
+        <v>2.940931827862138e-112</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.885901596862376e-112</v>
+        <v>2.893561863447581e-112</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>2.81130833814105e-112</v>
+        <v>2.818483317093405e-112</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.71301414493381e-112</v>
+        <v>2.71967944196145e-112</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>2.594998705103418e-112</v>
+        <v>2.601133491213752e-112</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>2.461241706512706e-112</v>
+        <v>2.466828718012418e-112</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>2.315722837024139e-112</v>
+        <v>2.32074837551918e-112</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>2.162421522030077e-112</v>
+        <v>2.166875456287753e-112</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>2.005108507256e-112</v>
+        <v>2.008985753666466e-112</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.846970909729186e-112</v>
+        <v>1.850275572813402e-112</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.69109459717346e-112</v>
+        <v>1.693840687888423e-112</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.540565437312637e-112</v>
+        <v>1.542776873051382e-112</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.398469297870124e-112</v>
+        <v>1.400179902461723e-112</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.267892046569857e-112</v>
+        <v>1.269145550279419e-112</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.15191955113528e-112</v>
+        <v>1.15276959066395e-112</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.053637679290199e-112</v>
+        <v>1.05414779777516e-112</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>9.761322987583558e-113</v>
+        <v>9.763759457728294e-113</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>9.224892772632924e-113</v>
+        <v>9.225498088165354e-113</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>8.957944825287708e-113</v>
+        <v>8.957651610660776e-113</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>8.991337822784565e-113</v>
+        <v>8.991177766811589e-113</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>9.355930442360361e-113</v>
+        <v>9.357034298215033e-113</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.007276159289919e-112</v>
+        <v>1.00763275357402e-112</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.103999459923461e-112</v>
+        <v>1.104689228251173e-112</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.207217062503895e-112</v>
+        <v>1.208267172364663e-112</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.298222811113561e-112</v>
+        <v>1.299600115693696e-112</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.358310549835126e-112</v>
+        <v>1.359921588017805e-112</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.368774122750989e-112</v>
+        <v>1.370465119116254e-112</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.316460634598773e-112</v>
+        <v>1.318035216682129e-112</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.23898269598752e-112</v>
+        <v>1.240363857791287e-112</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.201159553010148e-112</v>
+        <v>1.202476455718623e-112</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.261636974364178e-112</v>
+        <v>1.263158810534727e-112</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.413062083081753e-112</v>
+        <v>1.414929498147682e-112</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.580856089769467e-112</v>
+        <v>1.5830561267066e-112</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.685521910388791e-112</v>
+        <v>1.687893308634506e-112</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.656172822008353e-112</v>
+        <v>1.658425564074813e-112</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.512688041436208e-112</v>
+        <v>1.514609403120944e-112</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.32935977743909e-112</v>
+        <v>1.330937852227248e-112</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.180614008751225e-112</v>
+        <v>1.182037194317025e-112</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.095555401168198e-112</v>
+        <v>1.097048178696649e-112</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.028929518309599e-112</v>
+        <v>1.030485708101272e-112</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>9.572674260193649e-113</v>
+        <v>9.587755693509479e-113</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>8.816069436239117e-113</v>
+        <v>8.829782752819486e-113</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>8.037534100315747e-113</v>
+        <v>8.049258662454489e-113</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>7.255121641508926e-113</v>
+        <v>7.264503825928271e-113</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>6.486885448904074e-113</v>
+        <v>6.493838646754636e-113</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>5.750878911584511e-113</v>
+        <v>5.755583528445309e-113</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>5.064399452200918e-113</v>
+        <v>5.06729005138288e-113</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>4.433901872799537e-113</v>
+        <v>4.435482775250828e-113</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.857727793763717e-113</v>
+        <v>3.858435097454063e-113</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.334023188349065e-113</v>
+        <v>3.334221440905409e-113</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.860934029810997e-113</v>
+        <v>2.860916228517499e-113</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.436606291403673e-113</v>
+        <v>2.43659388320171e-113</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.059185946382872e-113</v>
+        <v>2.059328827871038e-113</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.726818968002925e-113</v>
+        <v>1.727195485437033e-113</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.43765130490194e-113</v>
+        <v>1.438268311292452e-113</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.189821925567201e-113</v>
+        <v>1.190630970482269e-113</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>9.814532554762703e-114</v>
+        <v>9.823889549955333e-114</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>8.106653233519112e-114</v>
+        <v>8.116509191154481e-114</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>6.755781579167533e-114</v>
+        <v>6.765255171250801e-114</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>5.741918091939685e-114</v>
+        <v>5.750030401950065e-114</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>5.024897122198922e-114</v>
+        <v>5.03084319469952e-114</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>4.547812718859859e-114</v>
+        <v>4.551186977951628e-114</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.253251767740056e-114</v>
+        <v>4.254054846324776e-114</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.083801154658544e-114</v>
+        <v>4.08243989443883e-114</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>3.982047765433442e-114</v>
+        <v>3.979335216912734e-114</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>3.890578485883332e-114</v>
+        <v>3.887733908365904e-114</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>3.756641648445522e-114</v>
+        <v>3.755221975406879e-114</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>3.574975406987666e-114</v>
+        <v>3.576177029922451e-114</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>3.36804887934477e-114</v>
+        <v>3.372299934990169e-114</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.158678692259903e-114</v>
+        <v>3.165633953367501e-114</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.969681472475559e-114</v>
+        <v>2.978222347811341e-114</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.82377212420356e-114</v>
+        <v>2.832010912088157e-114</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.728042532635473e-114</v>
+        <v>2.733975699420455e-114</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.65727260946707e-114</v>
+        <v>2.660131918710665e-114</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.583510991360914e-114</v>
+        <v>2.583868277460075e-114</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.496452742703021e-114</v>
+        <v>2.495351100606856e-114</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.398703394111969e-114</v>
+        <v>2.397021540990721e-114</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.293163886520068e-114</v>
+        <v>2.291601617432211e-114</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.18273516085973e-114</v>
+        <v>2.181813348751967e-114</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.070318158063065e-114</v>
+        <v>2.07037875377033e-114</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.958813819062581e-114</v>
+        <v>1.960019851308037e-114</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.851106636581078e-114</v>
+        <v>1.853443196886478e-114</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.748968895722509e-114</v>
+        <v>1.752309736831638e-114</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.652372760616741e-114</v>
+        <v>1.65658808681873e-114</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.56112628466095e-114</v>
+        <v>1.566092578657016e-114</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.475037521252581e-114</v>
+        <v>1.480637544156015e-114</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.393914523789053e-114</v>
+        <v>1.400037315125231e-114</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.317565345667574e-114</v>
+        <v>1.324106223373951e-114</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.245798040285569e-114</v>
+        <v>1.25265860071168e-114</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.178420661040451e-114</v>
+        <v>1.18550877894791e-114</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.115241261329448e-114</v>
+        <v>1.122471089891951e-114</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.056067894550028e-114</v>
+        <v>1.06335986535335e-114</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.000708614099435e-114</v>
+        <v>1.007989437141432e-114</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>9.489714733750758e-115</v>
+        <v>9.561741370656841e-115</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>9.006645257743443e-115</v>
+        <v>9.077282969355806e-115</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>8.555958246945059e-115</v>
+        <v>8.624662485604664e-115</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>8.135734235329568e-115</v>
+        <v>8.20202323749818e-115</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>7.744053756870829e-115</v>
+        <v>7.807508543131022e-115</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>7.378997345541652e-115</v>
+        <v>7.439261720596797e-115</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>7.038645535315926e-115</v>
+        <v>7.095426087990195e-115</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>6.721078860167438e-115</v>
+        <v>6.774144963405814e-115</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>6.42437785406914e-115</v>
+        <v>6.473561664937399e-115</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>6.146623050995083e-115</v>
+        <v>6.191819510679809e-115</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>5.885894984918287e-115</v>
+        <v>5.927061818726862e-115</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>5.640274189812528e-115</v>
+        <v>5.67743190717314e-115</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>5.407841199651321e-115</v>
+        <v>5.441073094112961e-115</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>5.186676548408383e-115</v>
+        <v>5.216128697640842e-115</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>4.974860770056829e-115</v>
+        <v>5.0007420358507e-115</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>4.770685878935874e-115</v>
+        <v>4.793259318099609e-115</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>4.573621641610424e-115</v>
+        <v>4.593156672522034e-115</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>4.383545409875368e-115</v>
+        <v>4.400301258740011e-115</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>4.200334929382346e-115</v>
+        <v>4.214560614236147e-115</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>4.023867945782506e-115</v>
+        <v>4.035802276492556e-115</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.854022204727491e-115</v>
+        <v>3.863893782991851e-115</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.690675451868925e-115</v>
+        <v>3.698702671216627e-115</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.533705432857991e-115</v>
+        <v>3.54009647864903e-115</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.382989893346316e-115</v>
+        <v>3.387942742771658e-115</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.238406578985504e-115</v>
+        <v>3.242109001067086e-115</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.099833235426775e-115</v>
+        <v>3.102462791017498e-115</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.967147608321851e-115</v>
+        <v>2.968871650105589e-115</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.840227443321977e-115</v>
+        <v>2.841203115813568e-115</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.718950486078747e-115</v>
+        <v>2.719324725624e-115</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.603194482243742e-115</v>
+        <v>2.603104017019435e-115</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.492837177468233e-115</v>
+        <v>2.49240852748211e-115</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.387756317403801e-115</v>
+        <v>2.387105794494576e-115</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.287829647702014e-115</v>
+        <v>2.287063355539369e-115</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.192934914014166e-115</v>
+        <v>2.192148748098753e-115</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.102949861991831e-115</v>
+        <v>2.102229509655268e-115</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.017752237286557e-115</v>
+        <v>2.017173177691432e-115</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.937219785549671e-115</v>
+        <v>1.936847289689539e-115</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.861230252432794e-115</v>
+        <v>1.861119383132181e-115</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.789661383587267e-115</v>
+        <v>1.789856995501665e-115</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.722390924664637e-115</v>
+        <v>1.722927664280508e-115</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.659296621316439e-115</v>
+        <v>1.660198926951212e-115</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.600256219194034e-115</v>
+        <v>1.601538320996107e-115</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.54514746394896e-115</v>
+        <v>1.5468133838977e-115</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.493848101232737e-115</v>
+        <v>1.49589165313848e-115</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.446235876696752e-115</v>
+        <v>1.4486406662008e-115</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.402188535992529e-115</v>
+        <v>1.404927960567156e-115</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.361583824771581e-115</v>
+        <v>1.364621073720026e-115</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.324299488685312e-115</v>
+        <v>1.327587543141784e-115</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.290213273385268e-115</v>
+        <v>1.293694906314944e-115</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.259202924522863e-115</v>
+        <v>1.26281070072189e-115</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.231129895715291e-115</v>
+        <v>1.234788884670921e-115</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.20577865981158e-115</v>
+        <v>1.209419254117184e-115</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.182910974851039e-115</v>
+        <v>1.18647267255156e-115</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.162288595580582e-115</v>
+        <v>1.165720000720756e-115</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.1436732767472e-115</v>
+        <v>1.146932099371555e-115</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.126826773097815e-115</v>
+        <v>1.129879829250671e-115</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.111510839379399e-115</v>
+        <v>1.114334051104868e-115</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.097487230338918e-115</v>
+        <v>1.100065625680904e-115</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.084517700723301e-115</v>
+        <v>1.086845413725502e-115</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.072364005279516e-115</v>
+        <v>1.074444275985423e-115</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.060787898754528e-115</v>
+        <v>1.062633073207421e-115</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.049552048398088e-115</v>
+        <v>1.051183254317612e-115</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.038435420972301e-115</v>
+        <v>1.039876774551802e-115</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.027231038446952e-115</v>
+        <v>1.028504648825705e-115</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.015732383343431e-115</v>
+        <v>1.016858188916531e-115</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.003732938183171e-115</v>
+        <v>1.00472870660153e-115</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>9.910261854875598e-116</v>
+        <v>9.919075136579086e-116</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>9.77405607778019e-116</v>
+        <v>9.781859218629083e-116</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>9.626646875759737e-116</v>
+        <v>9.633552429937717e-116</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>9.465969074028073e-116</v>
+        <v>9.472067888277018e-116</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>9.289957497799433e-116</v>
+        <v>9.295318711419405e-116</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>9.096546972288108e-116</v>
+        <v>9.101218017137358e-116</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>8.883672322707855e-116</v>
+        <v>8.887678923202818e-116</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>8.649268374272946e-116</v>
+        <v>8.652614547388245e-116</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>8.391269952197736e-116</v>
+        <v>8.393938007466182e-116</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>8.107611881695858e-116</v>
+        <v>8.109562421208451e-116</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>7.797819639886096e-116</v>
+        <v>7.799000533138485e-116</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>7.468757379665991e-116</v>
+        <v>7.469145170159265e-116</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>7.129404250730284e-116</v>
+        <v>7.129016089299355e-116</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>6.788739600191751e-116</v>
+        <v>6.787633246119234e-116</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>6.455742775162232e-116</v>
+        <v>6.454016596178453e-116</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>6.139393122754512e-116</v>
+        <v>6.137186095037497e-116</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.848669990081301e-116</v>
+        <v>5.846161698256783e-116</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.592552724254542e-116</v>
+        <v>5.589963361395959e-116</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.380007887634362e-116</v>
+        <v>5.377598176378279e-116</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>5.21604164731104e-116</v>
+        <v>5.214088403396013e-116</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>5.096112971696924e-116</v>
+        <v>5.094850195765331e-116</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>5.014271122619908e-116</v>
+        <v>5.013881302035602e-116</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>4.964565361907741e-116</v>
+        <v>4.965179470756058e-116</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>4.941044951388058e-116</v>
+        <v>4.942742450475814e-116</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>4.937759152888636e-116</v>
+        <v>4.940567989744128e-116</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>4.948757228237182e-116</v>
+        <v>4.952653837110188e-116</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>4.968088439261437e-116</v>
+        <v>4.972997741123218e-116</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>4.989940969035665e-116</v>
+        <v>4.995738310871414e-116</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>5.010198192487636e-116</v>
+        <v>5.016733011587246e-116</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>5.025876500360162e-116</v>
+        <v>5.032988140826321e-116</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>5.034013015972636e-116</v>
+        <v>5.041531018140406e-116</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>5.031644862644464e-116</v>
+        <v>5.039388963081296e-116</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>5.01580916369503e-116</v>
+        <v>5.02358929520075e-116</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>4.983543042443767e-116</v>
+        <v>4.991159334050581e-116</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>4.931883622210012e-116</v>
+        <v>4.939126399182505e-116</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>4.85786802631318e-116</v>
+        <v>4.864517810148318e-116</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>4.758729878193528e-116</v>
+        <v>4.764561887484792e-116</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>4.634500214641209e-116</v>
+        <v>4.639348440242335e-116</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>4.487292746560538e-116</v>
+        <v>4.491097655542061e-116</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>4.319270824946643e-116</v>
+        <v>4.32208049760947e-116</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>4.132597800795039e-116</v>
+        <v>4.13456793067046e-116</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>3.929437025101307e-116</v>
+        <v>3.930830918950987e-116</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>3.711952139520044e-116</v>
+        <v>3.713140678861154e-116</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>3.482778382055854e-116</v>
+        <v>3.484177597522523e-116</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>3.245981594584667e-116</v>
+        <v>3.247863295589821e-116</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>3.005897874197332e-116</v>
+        <v>3.008353875003526e-116</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.766863317790619e-116</v>
+        <v>2.769805437523923e-116</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.532685890459441e-116</v>
+        <v>2.535883619894547e-116</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.305106307565565e-116</v>
+        <v>2.308334247040265e-116</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.085359549831518e-116</v>
+        <v>2.08843347864821e-116</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.874680597979021e-116</v>
+        <v>1.877457474404709e-116</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.674304432730395e-116</v>
+        <v>1.676682393996687e-116</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.485466034807758e-116</v>
+        <v>1.487384397110868e-116</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.309400384933381e-116</v>
+        <v>1.310839643434129e-116</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.147342463829064e-116</v>
+        <v>1.148324292652874e-116</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.000527252217217e-116</v>
+        <v>1.001114504454118e-116</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>8.699050733558151e-117</v>
+        <v>8.701954428533518e-117</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>7.547871625101168e-117</v>
+        <v>7.548766878018951e-117</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>6.538992816260426e-117</v>
+        <v>6.538693097334402e-117</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>5.659664619559109e-117</v>
+        <v>5.65883632118397e-117</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>4.897137347523188e-117</v>
+        <v>4.896299784274546e-117</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>4.238661312678209e-117</v>
+        <v>4.238186721312599e-117</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>3.67148682754799e-117</v>
+        <v>3.671600367002864e-117</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>3.182864204658164e-117</v>
+        <v>3.183643956051897e-117</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.760071253139895e-117</v>
+        <v>2.761448803386704e-117</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.393051825507218e-117</v>
+        <v>2.394868854036282e-117</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>2.076605451026446e-117</v>
+        <v>2.078716791426767e-117</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.806047064793942e-117</v>
+        <v>1.808331644293118e-117</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.57669160190694e-117</v>
+        <v>1.579052441371163e-117</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.383853997462527e-117</v>
+        <v>1.386218211396583e-117</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.222849186557288e-117</v>
+        <v>1.225167983104557e-117</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.088992104288338e-117</v>
+        <v>1.091240785230799e-117</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>9.775976857526993e-118</v>
+        <v>9.797756465109215e-118</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>8.840314483961201e-118</v>
+        <v>8.861613019561616e-118</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>8.048582504839656e-118</v>
+        <v>8.069650551267894e-118</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>7.37862608126969e-118</v>
+        <v>7.399527432722644e-118</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>6.808836835493787e-118</v>
+        <v>6.829439032991065e-118</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>6.317606389756687e-118</v>
+        <v>6.337580721140614e-118</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>5.883326366301192e-118</v>
+        <v>5.902147866236809e-118</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>5.484388387371453e-118</v>
+        <v>5.501335837346515e-118</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>5.099184075211487e-118</v>
+        <v>5.113340003536467e-118</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>4.706105052064293e-118</v>
+        <v>4.716355733872374e-118</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>4.292981043494553e-118</v>
+        <v>4.298317097835594e-118</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>3.888406927288705e-118</v>
+        <v>3.88922165916643e-118</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>3.531981203743481e-118</v>
+        <v>3.530421061918012e-118</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>3.262611874297467e-118</v>
+        <v>3.262531524114846e-118</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>3.074626204428311e-118</v>
+        <v>3.078688257335127e-118</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.901114373099572e-118</v>
+        <v>2.906943754829753e-118</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.731106843220879e-118</v>
+        <v>2.73581460949766e-118</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.578166788780476e-118</v>
+        <v>2.580294627459693e-118</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.455916703986716e-118</v>
+        <v>2.455441636872834e-118</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.377276129144396e-118</v>
+        <v>2.375566227827474e-118</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.338923763512103e-118</v>
+        <v>2.337715021038456e-118</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.321256861056604e-118</v>
+        <v>2.321627505643656e-118</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.303961600976421e-118</v>
+        <v>2.306287300257501e-118</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.26672416246999e-118</v>
+        <v>2.270678023494334e-118</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.189241385770836e-118</v>
+        <v>2.193794267115362e-118</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.062290466069393e-118</v>
+        <v>2.06603536560015e-118</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.908682476776046e-118</v>
+        <v>1.910772353413564e-118</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.756983647028891e-118</v>
+        <v>1.75729990831834e-118</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.63455177782533e-118</v>
+        <v>1.633677273444544e-118</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.546072105645762e-118</v>
+        <v>1.54478443080393e-118</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.476083071034313e-118</v>
+        <v>1.474904316875357e-118</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.408422050198888e-118</v>
+        <v>1.40760313610246e-118</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.330113375638496e-118</v>
+        <v>1.329677954007387e-118</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.241672349188443e-118</v>
+        <v>1.241602662450213e-118</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.147183504993938e-118</v>
+        <v>1.147469556776001e-118</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.050731399920285e-118</v>
+        <v>1.051370955362911e-118</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>9.564005908327956e-119</v>
+        <v>9.573991765891054e-119</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>8.68275355671732e-119</v>
+        <v>8.696462561456997e-119</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>7.894398759838202e-119</v>
+        <v>7.911906445184827e-119</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>7.19731149240585e-119</v>
+        <v>7.218198116849154e-119</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>6.583282852865407e-119</v>
+        <v>6.606544667284012e-119</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>6.044103939663938e-119</v>
+        <v>6.068153187325342e-119</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>5.571565851248237e-119</v>
+        <v>5.594230767808826e-119</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>5.157459686063851e-119</v>
+        <v>5.175984499568889e-119</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>4.793576538998617e-119</v>
+        <v>4.804621514687184e-119</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>4.471544370575621e-119</v>
+        <v>4.473274182948134e-119</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>4.183686011745069e-119</v>
+        <v>4.180319946642618e-119</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.925455009134284e-119</v>
+        <v>3.921150203490826e-119</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.692808548615714e-119</v>
+        <v>3.690446188888188e-119</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.481703816061194e-119</v>
+        <v>3.482889138229523e-119</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.288097997343364e-119</v>
+        <v>3.293160286910453e-119</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.108390310820344e-119</v>
+        <v>3.116575828490588e-119</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.941075741672136e-119</v>
+        <v>2.951462423624803e-119</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.785269758344037e-119</v>
+        <v>2.797038026996497e-119</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.640087924531162e-119</v>
+        <v>2.652520730110983e-119</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.504645803929049e-119</v>
+        <v>2.517128624473994e-119</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.378058960233202e-119</v>
+        <v>2.390079801591234e-119</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.259442957138787e-119</v>
+        <v>2.270592352968063e-119</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.147913358341316e-119</v>
+        <v>2.15788437011019e-119</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.042585727536277e-119</v>
+        <v>2.0511739445233e-119</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.942575628418871e-119</v>
+        <v>1.949679167712792e-119</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.846998624684676e-119</v>
+        <v>1.85261813118444e-119</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.754971628792307e-119</v>
+        <v>1.759210105178189e-119</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.66587073362149e-119</v>
+        <v>1.668900867350237e-119</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.57963767919628e-119</v>
+        <v>1.581630535448543e-119</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.496288823084285e-119</v>
+        <v>1.497404438269468e-119</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.415840522853347e-119</v>
+        <v>1.416227904609607e-119</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.338309136071299e-119</v>
+        <v>1.338106263265549e-119</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.263711020305764e-119</v>
+        <v>1.263044843033671e-119</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.192062533124575e-119</v>
+        <v>1.191048972710562e-119</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.123380032095558e-119</v>
+        <v>1.1221239810928e-119</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.057679874786351e-119</v>
+        <v>1.05627519697678e-119</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>9.949784187648361e-120</v>
+        <v>9.935079491591377e-120</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>9.352920215986637e-120</v>
+        <v>9.338275664362779e-120</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>8.786370408556544e-120</v>
+        <v>8.772393776047765e-120</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>8.250298341036188e-120</v>
+        <v>8.23748711461198e-120</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>7.744867589102231e-120</v>
+        <v>7.733608968019637e-120</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>7.270241728432805e-120</v>
+        <v>7.260812624236414e-120</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>6.826584334705928e-120</v>
+        <v>6.819151371227868e-120</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>6.414058983598436e-120</v>
+        <v>6.408678496958388e-120</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>6.032829250788366e-120</v>
+        <v>6.029447289393558e-120</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>5.682734497732616e-120</v>
+        <v>5.681200237257686e-120</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>5.362118674111388e-120</v>
+        <v>5.362246293004059e-120</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>5.068894865599613e-120</v>
+        <v>5.070481372898221e-120</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>4.800976117864098e-120</v>
+        <v>4.803801354852958e-120</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>4.556275476572452e-120</v>
+        <v>4.560102116781854e-120</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>4.332705987392003e-120</v>
+        <v>4.33727953659822e-120</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>4.12818069599026e-120</v>
+        <v>4.13322949221554e-120</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>3.940612648034189e-120</v>
+        <v>3.945847861546761e-120</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.767914889191458e-120</v>
+        <v>3.773030522505532e-120</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.608000465129093e-120</v>
+        <v>3.612673353004854e-120</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.458782421514586e-120</v>
+        <v>3.4626722309582e-120</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.318173804015391e-120</v>
+        <v>3.320923034279002e-120</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.184087658298588e-120</v>
+        <v>3.185321640880319e-120</v>
       </c>
     </row>
   </sheetData>
